--- a/mapping/mml_health_insurance_mapping.xlsx
+++ b/mapping/mml_health_insurance_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="307">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -322,9 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0002]</t>
-  </si>
-  <si>
     <t>class</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,16 +330,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0003]</t>
-  </si>
-  <si>
     <t>insurance number</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0004]</t>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,15 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0008]/items[at0009]</t>
-  </si>
-  <si>
-    <t>/items[at0008]/items[at0010]</t>
-  </si>
-  <si>
-    <t>/items[at0011]</t>
-  </si>
-  <si>
     <t>family class</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,27 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.address-japan.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,34 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006]</t>
-  </si>
-  <si>
-    <t>＊ValueはHL7-0190きめうち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
     <t>mmlPh:telEquipType</t>
   </si>
   <si>
@@ -615,9 +548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0016]/items[at0017 and name/value='disease']</t>
-  </si>
-  <si>
     <t>diseases</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -630,15 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0018]</t>
-  </si>
-  <si>
-    <t>/items[at0019]</t>
-  </si>
-  <si>
-    <t>/items[at0038]</t>
-  </si>
-  <si>
     <t>payment in ratio</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -647,9 +568,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0039]</t>
-  </si>
-  <si>
     <t>mmlFc:name</t>
   </si>
   <si>
@@ -704,151 +622,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]</t>
-  </si>
-  <si>
     <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]</t>
   </si>
   <si>
     <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]</t>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
-  </si>
-  <si>
     <t>priority</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0029]</t>
-  </si>
-  <si>
     <t>provider</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -873,25 +656,478 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0030]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0031]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0032]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0033]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0034]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0035]/items[at0036]</t>
-  </si>
-  <si>
-    <t>/items[at0028 and name/value='public insurance']/items[at0035]/items[at0037]</t>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0008]/items[at0009]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0008]/items[at0010]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0011]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値はHL7-4000で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値はHL7-0190で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0016]/items[at0017 and name/value='disease']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0018]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0038]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0039]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"="で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/definition_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/definition_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.15]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0011]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0029]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0030]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0031]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0032]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0033]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0034]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0035]/items[at0036]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0028 and name/value='public insurance']/items[at0035]/items[at0037]/value</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -929,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -967,13 +1203,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +1244,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1251,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C105" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,9 +1575,10 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1340,8 +1596,14 @@
       <c r="I2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1359,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1374,7 +1636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -1390,8 +1652,14 @@
       <c r="I5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,13 +1675,16 @@
       </c>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -1427,13 +1698,16 @@
       </c>
       <c r="F7" s="1"/>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -1449,7 +1723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1463,13 +1737,16 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1758,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,13 +1772,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="K11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1515,13 +1795,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1535,13 +1818,16 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="K13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1555,7 +1841,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1569,7 +1855,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1579,18 +1865,18 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F16" s="1"/>
       <c r="H16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1599,20 +1885,23 @@
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1621,11 +1910,17 @@
         <v>10</v>
       </c>
       <c r="F18" s="1"/>
+      <c r="J18" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K18" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1634,16 +1929,19 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1652,16 +1950,19 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1672,16 +1973,19 @@
       </c>
       <c r="F21" s="1"/>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -1690,16 +1994,19 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -1710,16 +2017,19 @@
       </c>
       <c r="F23" s="1"/>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1730,10 +2040,13 @@
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1760,18 +2073,18 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1"/>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -1780,116 +2093,97 @@
         <v>15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" t="s">
-        <v>158</v>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="I29" s="6"/>
-      <c r="K29" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="I30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" t="s">
-        <v>160</v>
-      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J31" t="s">
-        <v>161</v>
+      <c r="J31" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="I32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
@@ -1900,16 +2194,19 @@
       </c>
       <c r="F33" s="5"/>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="K33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
@@ -1920,16 +2217,19 @@
       </c>
       <c r="F34" s="5"/>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
@@ -1940,16 +2240,19 @@
       </c>
       <c r="F35" s="5"/>
       <c r="I35" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
@@ -1960,117 +2263,144 @@
       </c>
       <c r="F36" s="5"/>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="I37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="I38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" t="s">
+        <v>195</v>
+      </c>
+      <c r="K39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="H38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F41" s="1"/>
+      <c r="H41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="I40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="I41" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="I42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -2081,13 +2411,19 @@
       </c>
       <c r="F43" s="1"/>
       <c r="I43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
@@ -2097,14 +2433,20 @@
         <v>13</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="I44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I44" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
@@ -2115,13 +2457,19 @@
       </c>
       <c r="F45" s="1"/>
       <c r="I45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
@@ -2131,259 +2479,296 @@
         <v>13</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="I46" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="H47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="I47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1"/>
       <c r="I48" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" s="1"/>
-      <c r="I49" t="s">
-        <v>187</v>
-      </c>
-      <c r="J49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" s="1"/>
-      <c r="I50" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1"/>
       <c r="I51" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="I52" t="s">
-        <v>193</v>
-      </c>
-      <c r="J52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="I53" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="I55" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="H55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="I56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="I59" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -2391,243 +2776,257 @@
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>113</v>
+      <c r="F60" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I61" s="8"/>
+      <c r="K61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="I62" s="3" t="s">
-        <v>206</v>
+      <c r="I62" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="J62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="K62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>208</v>
+        <v>15</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J63" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="12"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="K65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="I66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" t="s">
+        <v>241</v>
+      </c>
+      <c r="K66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="H65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F69" s="1"/>
+      <c r="H69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="F70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="F71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="I69" t="s">
-        <v>142</v>
-      </c>
-      <c r="J69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="I70" t="s">
-        <v>144</v>
-      </c>
-      <c r="J70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="I71" t="s">
-        <v>146</v>
-      </c>
-      <c r="J71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F72" s="5"/>
-      <c r="I72" t="s">
-        <v>148</v>
-      </c>
-      <c r="J72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -2638,16 +3037,19 @@
       </c>
       <c r="F73" s="5"/>
       <c r="I73" t="s">
-        <v>150</v>
-      </c>
-      <c r="J73" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
@@ -2658,16 +3060,19 @@
       </c>
       <c r="F74" s="5"/>
       <c r="I74" t="s">
-        <v>152</v>
-      </c>
-      <c r="J74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="5" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
@@ -2678,149 +3083,167 @@
       </c>
       <c r="F75" s="5"/>
       <c r="I75" t="s">
-        <v>154</v>
-      </c>
-      <c r="J75" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="I76" t="s">
+        <v>135</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="I77" t="s">
+        <v>137</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="I78" t="s">
+        <v>139</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="I79" t="s">
+        <v>141</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="H77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="F81" s="1"/>
+      <c r="H81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J78" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="I79" t="s">
-        <v>171</v>
-      </c>
-      <c r="J79" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="I80" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="I81" t="s">
-        <v>175</v>
-      </c>
-      <c r="J81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="I82" t="s">
-        <v>177</v>
-      </c>
-      <c r="J82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -2831,16 +3254,19 @@
       </c>
       <c r="F83" s="1"/>
       <c r="I83" t="s">
-        <v>179</v>
-      </c>
-      <c r="J83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -2850,17 +3276,20 @@
         <v>13</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="I84" t="s">
-        <v>181</v>
-      </c>
-      <c r="J84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
@@ -2870,160 +3299,181 @@
         <v>13</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="I85" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="I85" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="I86" t="s">
+        <v>155</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="I87" t="s">
+        <v>157</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="H88" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I88" t="s">
+        <v>159</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="I89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="H92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="I89" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="I92" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J93" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F93" s="1"/>
+      <c r="I93" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -3031,242 +3481,260 @@
       <c r="E94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J94" t="s">
+        <v>211</v>
+      </c>
+      <c r="K94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="I95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J95" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="B96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="I96" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="K96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="H98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E98" s="1"/>
+      <c r="F98" s="12"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="5" t="s">
+      <c r="C99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F99" s="1"/>
+      <c r="K99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="C100" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>157</v>
+      <c r="F100" s="1"/>
+      <c r="I100" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="J100" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="5" t="s">
+      <c r="C101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="I102" t="s">
-        <v>142</v>
-      </c>
-      <c r="J102" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="5"/>
-      <c r="I103" t="s">
+      <c r="F101" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="H103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="I104" t="s">
-        <v>146</v>
-      </c>
-      <c r="J104" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="1"/>
-      <c r="B105" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="5"/>
-      <c r="I105" t="s">
-        <v>148</v>
-      </c>
       <c r="J105" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="K105" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
-      <c r="B106" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F106" s="5"/>
-      <c r="I106" t="s">
-        <v>150</v>
-      </c>
-      <c r="J106" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I106" s="6"/>
+      <c r="K106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="5" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -3277,16 +3745,19 @@
       </c>
       <c r="F107" s="5"/>
       <c r="I107" t="s">
-        <v>152</v>
-      </c>
-      <c r="J107" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
@@ -3297,169 +3768,190 @@
       </c>
       <c r="F108" s="5"/>
       <c r="I108" t="s">
-        <v>154</v>
-      </c>
-      <c r="J108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K108" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="I109" t="s">
+        <v>133</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
+      <c r="B111" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K111" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="1"/>
+      <c r="B112" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A113" s="1"/>
+      <c r="B113" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K113" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="H110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="F115" s="1"/>
+      <c r="H115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J111" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="I112" t="s">
-        <v>171</v>
-      </c>
-      <c r="J112" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="I113" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J113" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="I114" t="s">
-        <v>175</v>
-      </c>
-      <c r="J114" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="I115" t="s">
-        <v>177</v>
-      </c>
-      <c r="J115" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="I116" t="s">
-        <v>179</v>
-      </c>
-      <c r="J116" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
@@ -3470,16 +3962,19 @@
       </c>
       <c r="F117" s="1"/>
       <c r="I117" t="s">
-        <v>181</v>
-      </c>
-      <c r="J117" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K117" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
@@ -3490,69 +3985,88 @@
       </c>
       <c r="F118" s="1"/>
       <c r="I118" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J118" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="H120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B121" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F121" s="1"/>
       <c r="I121" t="s">
-        <v>257</v>
-      </c>
-      <c r="J121" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
@@ -3563,134 +4077,257 @@
       </c>
       <c r="F122" s="1"/>
       <c r="I122" t="s">
-        <v>262</v>
-      </c>
-      <c r="J122" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F123" s="1"/>
-      <c r="I123" t="s">
-        <v>259</v>
-      </c>
-      <c r="J123" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I123" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F124" s="1"/>
-      <c r="I124" t="s">
-        <v>260</v>
-      </c>
-      <c r="J124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F125" s="1"/>
-      <c r="I125" t="s">
-        <v>261</v>
-      </c>
-      <c r="J125" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" s="1"/>
+      <c r="H125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E126" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="I126" t="s">
-        <v>188</v>
-      </c>
-      <c r="J126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F127" s="1"/>
       <c r="I127" t="s">
-        <v>263</v>
-      </c>
-      <c r="J127" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="I128" t="s">
+        <v>187</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K128" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="I129" t="s">
+        <v>188</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="I130" t="s">
+        <v>189</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="I132" t="s">
+        <v>191</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J128" t="s">
-        <v>271</v>
+      <c r="I133" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K133" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_health_insurance_mapping.xlsx
+++ b/mapping/mml_health_insurance_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="307">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3003,6 +3003,9 @@
       </c>
       <c r="I71" s="6" t="s">
         <v>144</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="K71" t="s">
         <v>256</v>

--- a/mapping/mml_health_insurance_mapping.xlsx
+++ b/mapping/mml_health_insurance_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="308">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -481,20 +481,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Address type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:telEquipType</t>
   </si>
   <si>
     <t>MML0003</t>
   </si>
   <si>
-    <t>Telecom type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:area</t>
   </si>
   <si>
@@ -505,10 +497,6 @@
     <t>mmlPh:city</t>
   </si>
   <si>
-    <t>*structured_telecoms/City code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:number</t>
   </si>
   <si>
@@ -519,10 +507,6 @@
     <t>mmlPh:extension</t>
   </si>
   <si>
-    <t>structured_telecoms/extention</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:full</t>
   </si>
   <si>
@@ -548,33 +532,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>diseases</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stard date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>expired date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>payment in ratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment out ratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlFc:name</t>
   </si>
   <si>
-    <t>Name of organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlFc:repCode</t>
   </si>
   <si>
@@ -614,10 +578,6 @@
     <t>MML0001</t>
   </si>
   <si>
-    <t>Identifier chedi digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.organisation-mml.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,10 +609,6 @@
   </si>
   <si>
     <t>payment/ratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment/type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -900,10 +856,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*値は"="で固定</t>
     <rPh sb="1" eb="2">
       <t>アタイ</t>
@@ -914,10 +866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_CODED_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1002,14 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/term_mappings[1]/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]/magnitude</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,6 +1067,67 @@
   </si>
   <si>
     <t>/items[at0028 and name/value='public insurance']/items[at0035]/items[at0037]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type with HL7 table</t>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paimentInRatio</t>
+  </si>
+  <si>
+    <t>paymentOutRatio</t>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment/ratio type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*structured_telecoms/City</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1151,7 +1152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,6 +1162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1268,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1597,10 +1616,10 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1653,10 +1672,10 @@
         <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1678,10 +1697,10 @@
         <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1701,10 +1720,10 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1740,10 +1759,10 @@
         <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1775,10 +1794,10 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1798,10 +1817,10 @@
         <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1821,10 +1840,10 @@
         <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1891,10 +1910,10 @@
         <v>108</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1911,10 +1930,10 @@
       </c>
       <c r="F18" s="1"/>
       <c r="J18" s="11" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1932,10 +1951,10 @@
         <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1953,10 +1972,10 @@
         <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1976,10 +1995,10 @@
         <v>115</v>
       </c>
       <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
         <v>197</v>
-      </c>
-      <c r="K21" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1997,10 +2016,10 @@
         <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -2020,10 +2039,10 @@
         <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -2043,10 +2062,10 @@
         <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -2099,10 +2118,10 @@
         <v>124</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2114,10 +2133,10 @@
       <c r="F28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="11" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -2155,14 +2174,14 @@
       <c r="F31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>144</v>
+      <c r="I31" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -2197,10 +2216,10 @@
         <v>129</v>
       </c>
       <c r="J33" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2220,10 +2239,10 @@
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -2243,10 +2262,10 @@
         <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K35" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -2266,10 +2285,10 @@
         <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -2289,10 +2308,10 @@
         <v>137</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -2312,10 +2331,10 @@
         <v>139</v>
       </c>
       <c r="J38" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -2335,10 +2354,10 @@
         <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -2369,14 +2388,14 @@
       </c>
       <c r="F41" s="1"/>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -2385,22 +2404,22 @@
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -2411,19 +2430,19 @@
       </c>
       <c r="F43" s="1"/>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
@@ -2434,19 +2453,19 @@
       </c>
       <c r="F44" s="1"/>
       <c r="I44" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
@@ -2457,19 +2476,19 @@
       </c>
       <c r="F45" s="1"/>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
@@ -2479,20 +2498,20 @@
         <v>13</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="I46" t="s">
-        <v>155</v>
+      <c r="I46" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -2503,19 +2522,19 @@
       </c>
       <c r="F47" s="1"/>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K47" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
@@ -2526,19 +2545,19 @@
       </c>
       <c r="F48" s="1"/>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K48" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
@@ -2549,13 +2568,13 @@
       </c>
       <c r="F49" s="1"/>
       <c r="I49" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K49" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2590,14 +2609,14 @@
         <v>48</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="I51" t="s">
-        <v>163</v>
+      <c r="I51" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K51" t="s">
         <v>226</v>
-      </c>
-      <c r="K51" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2613,14 +2632,14 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="I52" t="s">
-        <v>164</v>
+      <c r="I52" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2637,13 +2656,13 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="I53" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2661,14 +2680,14 @@
         <v>13</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="I54" t="s">
-        <v>166</v>
+      <c r="I54" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K54" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -2686,14 +2705,14 @@
         <v>13</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="I55" t="s">
-        <v>167</v>
+      <c r="I55" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K55" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2738,13 +2757,13 @@
       </c>
       <c r="F58" s="1"/>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2754,21 +2773,21 @@
         <v>48</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="I59" s="7" t="s">
-        <v>169</v>
+      <c r="I59" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K59" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -2783,17 +2802,17 @@
         <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K60" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -2804,13 +2823,13 @@
       <c r="F61" s="1"/>
       <c r="I61" s="8"/>
       <c r="K61" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -2821,19 +2840,19 @@
       </c>
       <c r="F62" s="1"/>
       <c r="I62" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J62" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K62" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -2845,13 +2864,13 @@
         <v>107</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2862,16 +2881,16 @@
       <c r="F64" s="12"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K64" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -2881,35 +2900,35 @@
       </c>
       <c r="F65" s="1"/>
       <c r="K65" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="1"/>
       <c r="I66" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -2918,16 +2937,16 @@
         <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
@@ -2980,10 +2999,10 @@
         <v>124</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="K70" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
@@ -3001,14 +3020,14 @@
       <c r="F71" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>144</v>
+      <c r="I71" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K71" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -3043,10 +3062,10 @@
         <v>129</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
@@ -3066,10 +3085,10 @@
         <v>131</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
@@ -3089,10 +3108,10 @@
         <v>133</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
@@ -3112,10 +3131,10 @@
         <v>135</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
@@ -3135,10 +3154,10 @@
         <v>137</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -3158,10 +3177,10 @@
         <v>139</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -3181,10 +3200,10 @@
         <v>141</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K79" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -3215,14 +3234,14 @@
       </c>
       <c r="F81" s="1"/>
       <c r="H81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -3231,22 +3250,22 @@
         <v>10</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K82" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -3257,19 +3276,19 @@
       </c>
       <c r="F83" s="1"/>
       <c r="I83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -3279,20 +3298,20 @@
         <v>13</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="I84" s="4" t="s">
-        <v>151</v>
+      <c r="I84" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
@@ -3303,19 +3322,19 @@
       </c>
       <c r="F85" s="1"/>
       <c r="I85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K85" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -3325,20 +3344,20 @@
         <v>13</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="I86" t="s">
-        <v>155</v>
+      <c r="I86" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
@@ -3349,19 +3368,19 @@
       </c>
       <c r="F87" s="1"/>
       <c r="I87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K87" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
@@ -3372,19 +3391,19 @@
       </c>
       <c r="F88" s="1"/>
       <c r="I88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K88" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
@@ -3395,13 +3414,13 @@
       </c>
       <c r="F89" s="1"/>
       <c r="I89" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K89" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
@@ -3446,13 +3465,13 @@
       </c>
       <c r="F92" s="1"/>
       <c r="H92" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
@@ -3462,21 +3481,21 @@
         <v>48</v>
       </c>
       <c r="F93" s="1"/>
-      <c r="I93" s="7" t="s">
-        <v>169</v>
+      <c r="I93" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="K93" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -3491,17 +3510,17 @@
         <v>108</v>
       </c>
       <c r="J94" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K94" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -3515,7 +3534,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
@@ -3526,19 +3545,19 @@
       </c>
       <c r="F96" s="1"/>
       <c r="I96" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J96" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K96" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
@@ -3550,13 +3569,13 @@
         <v>107</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K97" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -3567,16 +3586,16 @@
       <c r="F98" s="12"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K98" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
@@ -3586,35 +3605,35 @@
       </c>
       <c r="F99" s="1"/>
       <c r="K99" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="1"/>
       <c r="I100" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J100" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K100" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
@@ -3623,16 +3642,16 @@
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K101" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -3685,10 +3704,10 @@
         <v>124</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K104" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -3706,14 +3725,14 @@
       <c r="F105" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I105" s="6" t="s">
-        <v>144</v>
+      <c r="I105" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="J105" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K105" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -3731,7 +3750,7 @@
       <c r="F106" s="5"/>
       <c r="I106" s="6"/>
       <c r="K106" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -3751,10 +3770,10 @@
         <v>129</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K107" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
@@ -3774,10 +3793,10 @@
         <v>131</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K108" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -3797,10 +3816,10 @@
         <v>133</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K109" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -3820,10 +3839,10 @@
         <v>135</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K110" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
@@ -3843,10 +3862,10 @@
         <v>137</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K111" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -3866,10 +3885,10 @@
         <v>139</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K112" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -3889,10 +3908,10 @@
         <v>141</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K113" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -3923,14 +3942,14 @@
       </c>
       <c r="F115" s="1"/>
       <c r="H115" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
@@ -3939,22 +3958,22 @@
         <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K116" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
@@ -3965,19 +3984,19 @@
       </c>
       <c r="F117" s="1"/>
       <c r="I117" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K117" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
@@ -3987,20 +4006,20 @@
         <v>13</v>
       </c>
       <c r="F118" s="1"/>
-      <c r="I118" s="4" t="s">
-        <v>151</v>
+      <c r="I118" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K118" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
@@ -4011,19 +4030,19 @@
       </c>
       <c r="F119" s="1"/>
       <c r="I119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K119" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
@@ -4033,20 +4052,20 @@
         <v>13</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="I120" t="s">
-        <v>155</v>
+      <c r="I120" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K120" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
@@ -4057,19 +4076,19 @@
       </c>
       <c r="F121" s="1"/>
       <c r="I121" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K121" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
@@ -4080,19 +4099,19 @@
       </c>
       <c r="F122" s="1"/>
       <c r="I122" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K122" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
@@ -4103,13 +4122,13 @@
       </c>
       <c r="F123" s="1"/>
       <c r="I123" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K123" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -4157,13 +4176,13 @@
       </c>
       <c r="F126" s="1"/>
       <c r="I126" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K126" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -4182,13 +4201,13 @@
       </c>
       <c r="F127" s="1"/>
       <c r="I127" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K127" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -4205,13 +4224,13 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="I128" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K128" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -4228,13 +4247,13 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="I129" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K129" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -4251,13 +4270,13 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="I130" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="K130" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -4274,13 +4293,13 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="I131" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="K131" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -4299,13 +4318,13 @@
       </c>
       <c r="F132" s="1"/>
       <c r="I132" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K132" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -4323,14 +4342,14 @@
       <c r="F133" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>192</v>
+      <c r="I133" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K133" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_health_insurance_mapping.xlsx
+++ b/mapping/mml_health_insurance_mapping.xlsx
@@ -585,9 +585,6 @@
     <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.13]</t>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]</t>
-  </si>
-  <si>
     <t>priority</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1128,6 +1125,10 @@
   </si>
   <si>
     <t>/items[at0024]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1584,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="K113" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1616,10 +1617,10 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1672,10 +1673,10 @@
         <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1697,10 +1698,10 @@
         <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1720,10 +1721,10 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1759,10 +1760,10 @@
         <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1794,10 +1795,10 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1817,10 +1818,10 @@
         <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1840,10 +1841,10 @@
         <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1910,10 +1911,10 @@
         <v>108</v>
       </c>
       <c r="J17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" t="s">
         <v>200</v>
-      </c>
-      <c r="K17" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1930,10 +1931,10 @@
       </c>
       <c r="F18" s="1"/>
       <c r="J18" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1951,10 +1952,10 @@
         <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1972,10 +1973,10 @@
         <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1995,10 +1996,10 @@
         <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -2016,10 +2017,10 @@
         <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -2039,10 +2040,10 @@
         <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -2062,10 +2063,10 @@
         <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -2118,10 +2119,10 @@
         <v>124</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2133,10 +2134,10 @@
       <c r="F28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -2175,13 +2176,13 @@
         <v>126</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J31" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" t="s">
         <v>205</v>
-      </c>
-      <c r="K31" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -2216,10 +2217,10 @@
         <v>129</v>
       </c>
       <c r="J33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2239,10 +2240,10 @@
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -2262,10 +2263,10 @@
         <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -2285,10 +2286,10 @@
         <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -2308,10 +2309,10 @@
         <v>137</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -2331,10 +2332,10 @@
         <v>139</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -2354,10 +2355,10 @@
         <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -2407,13 +2408,13 @@
         <v>145</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -2433,10 +2434,10 @@
         <v>147</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -2453,13 +2454,13 @@
       </c>
       <c r="F44" s="1"/>
       <c r="I44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" t="s">
         <v>219</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K44" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2479,10 +2480,10 @@
         <v>150</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2499,13 +2500,13 @@
       </c>
       <c r="F46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2525,10 +2526,10 @@
         <v>153</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -2548,10 +2549,10 @@
         <v>155</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2571,10 +2572,10 @@
         <v>157</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2610,13 +2611,13 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2633,13 +2634,13 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="I52" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2659,10 +2660,10 @@
         <v>159</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" t="s">
         <v>228</v>
-      </c>
-      <c r="K53" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2681,13 +2682,13 @@
       </c>
       <c r="F54" s="1"/>
       <c r="I54" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K54" t="s">
         <v>230</v>
-      </c>
-      <c r="K54" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -2706,13 +2707,13 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K55" t="s">
         <v>232</v>
-      </c>
-      <c r="K55" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2774,13 +2775,13 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2802,10 +2803,10 @@
         <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2823,7 +2824,7 @@
       <c r="F61" s="1"/>
       <c r="I61" s="8"/>
       <c r="K61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2843,10 +2844,10 @@
         <v>164</v>
       </c>
       <c r="J62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2867,10 +2868,10 @@
         <v>166</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2881,10 +2882,10 @@
       <c r="F64" s="12"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2900,7 +2901,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="K65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
@@ -2919,7 +2920,7 @@
         <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K66" t="s">
         <v>174</v>
@@ -2940,13 +2941,13 @@
         <v>172</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K67" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
@@ -2999,10 +3000,10 @@
         <v>124</v>
       </c>
       <c r="J70" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K70" t="s">
         <v>241</v>
-      </c>
-      <c r="K70" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
@@ -3021,13 +3022,13 @@
         <v>126</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -3062,10 +3063,10 @@
         <v>129</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
@@ -3085,10 +3086,10 @@
         <v>131</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
@@ -3108,10 +3109,10 @@
         <v>133</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
@@ -3131,10 +3132,10 @@
         <v>135</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
@@ -3154,10 +3155,10 @@
         <v>137</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -3177,10 +3178,10 @@
         <v>139</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -3200,10 +3201,10 @@
         <v>141</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -3253,13 +3254,13 @@
         <v>145</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
@@ -3279,10 +3280,10 @@
         <v>147</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
@@ -3299,13 +3300,13 @@
       </c>
       <c r="F84" s="1"/>
       <c r="I84" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
@@ -3325,10 +3326,10 @@
         <v>150</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -3345,13 +3346,13 @@
       </c>
       <c r="F86" s="1"/>
       <c r="I86" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -3371,10 +3372,10 @@
         <v>153</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -3394,10 +3395,10 @@
         <v>155</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
@@ -3417,10 +3418,10 @@
         <v>157</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
@@ -3482,13 +3483,13 @@
       </c>
       <c r="F93" s="1"/>
       <c r="I93" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
@@ -3510,10 +3511,10 @@
         <v>108</v>
       </c>
       <c r="J94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
@@ -3548,10 +3549,10 @@
         <v>164</v>
       </c>
       <c r="J96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
@@ -3572,10 +3573,10 @@
         <v>166</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -3586,10 +3587,10 @@
       <c r="F98" s="12"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
@@ -3605,7 +3606,7 @@
       </c>
       <c r="F99" s="1"/>
       <c r="K99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
@@ -3624,10 +3625,10 @@
         <v>170</v>
       </c>
       <c r="J100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -3645,13 +3646,13 @@
         <v>172</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -3704,10 +3705,10 @@
         <v>124</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -3726,13 +3727,13 @@
         <v>126</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -3750,7 +3751,7 @@
       <c r="F106" s="5"/>
       <c r="I106" s="6"/>
       <c r="K106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -3770,10 +3771,10 @@
         <v>129</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
@@ -3793,10 +3794,10 @@
         <v>131</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -3816,10 +3817,10 @@
         <v>133</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -3839,10 +3840,10 @@
         <v>135</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
@@ -3862,10 +3863,10 @@
         <v>137</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -3885,10 +3886,10 @@
         <v>139</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -3908,10 +3909,10 @@
         <v>141</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -3961,13 +3962,13 @@
         <v>145</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
@@ -3987,10 +3988,10 @@
         <v>147</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -4007,13 +4008,13 @@
       </c>
       <c r="F118" s="1"/>
       <c r="I118" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
@@ -4033,10 +4034,10 @@
         <v>150</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
@@ -4053,13 +4054,13 @@
       </c>
       <c r="F120" s="1"/>
       <c r="I120" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
@@ -4079,10 +4080,10 @@
         <v>153</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -4102,10 +4103,10 @@
         <v>155</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -4125,10 +4126,10 @@
         <v>157</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -4176,13 +4177,13 @@
       </c>
       <c r="F126" s="1"/>
       <c r="I126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -4201,13 +4202,13 @@
       </c>
       <c r="F127" s="1"/>
       <c r="I127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -4224,13 +4225,13 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="I128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K128" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -4247,13 +4248,13 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="I129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -4270,13 +4271,13 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="I130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -4296,10 +4297,10 @@
         <v>159</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K131" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -4318,13 +4319,13 @@
       </c>
       <c r="F132" s="1"/>
       <c r="I132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -4343,13 +4344,13 @@
         <v>93</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_health_insurance_mapping.xlsx
+++ b/mapping/mml_health_insurance_mapping.xlsx
@@ -785,10 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,10 +915,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1015,10 +1007,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1129,6 +1117,18 @@
   </si>
   <si>
     <t>/items[at0020]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Organisation record for MML']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0020]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0012]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K113" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2176,7 +2176,7 @@
         <v>126</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>204</v>
@@ -2408,7 +2408,7 @@
         <v>145</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>214</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>214</v>
@@ -2529,7 +2529,7 @@
         <v>214</v>
       </c>
       <c r="K47" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -2552,7 +2552,7 @@
         <v>214</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2575,7 +2575,7 @@
         <v>214</v>
       </c>
       <c r="K49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2611,13 +2611,13 @@
       </c>
       <c r="F51" s="1"/>
       <c r="I51" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>214</v>
       </c>
       <c r="K51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2634,13 +2634,13 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="I52" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2660,10 +2660,10 @@
         <v>159</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K53" t="s">
         <v>227</v>
-      </c>
-      <c r="K53" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2682,13 +2682,13 @@
       </c>
       <c r="F54" s="1"/>
       <c r="I54" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K54" t="s">
         <v>229</v>
-      </c>
-      <c r="K54" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -2707,13 +2707,13 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" t="s">
         <v>231</v>
-      </c>
-      <c r="K55" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2775,13 +2775,13 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>214</v>
       </c>
       <c r="K59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2806,7 +2806,7 @@
         <v>199</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2824,7 +2824,7 @@
       <c r="F61" s="1"/>
       <c r="I61" s="8"/>
       <c r="K61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2844,10 +2844,10 @@
         <v>164</v>
       </c>
       <c r="J62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2871,7 +2871,7 @@
         <v>183</v>
       </c>
       <c r="K63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2882,10 +2882,10 @@
       <c r="F64" s="12"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="K65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
@@ -2920,7 +2920,7 @@
         <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K66" t="s">
         <v>174</v>
@@ -2941,13 +2941,13 @@
         <v>172</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
@@ -3000,10 +3000,10 @@
         <v>124</v>
       </c>
       <c r="J70" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K70" t="s">
         <v>240</v>
-      </c>
-      <c r="K70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
@@ -3022,13 +3022,13 @@
         <v>126</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>199</v>
       </c>
       <c r="K71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
@@ -3066,7 +3066,7 @@
         <v>183</v>
       </c>
       <c r="K73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
@@ -3089,7 +3089,7 @@
         <v>183</v>
       </c>
       <c r="K74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
@@ -3112,7 +3112,7 @@
         <v>183</v>
       </c>
       <c r="K75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
@@ -3135,7 +3135,7 @@
         <v>183</v>
       </c>
       <c r="K76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
@@ -3158,7 +3158,7 @@
         <v>183</v>
       </c>
       <c r="K77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
@@ -3181,7 +3181,7 @@
         <v>183</v>
       </c>
       <c r="K78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
@@ -3204,7 +3204,7 @@
         <v>183</v>
       </c>
       <c r="K79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
@@ -3254,13 +3254,13 @@
         <v>145</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>199</v>
       </c>
       <c r="K82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
@@ -3283,7 +3283,7 @@
         <v>183</v>
       </c>
       <c r="K83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
@@ -3300,13 +3300,13 @@
       </c>
       <c r="F84" s="1"/>
       <c r="I84" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
@@ -3329,7 +3329,7 @@
         <v>183</v>
       </c>
       <c r="K85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
@@ -3346,13 +3346,13 @@
       </c>
       <c r="F86" s="1"/>
       <c r="I86" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
@@ -3375,7 +3375,7 @@
         <v>183</v>
       </c>
       <c r="K87" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
@@ -3398,7 +3398,7 @@
         <v>183</v>
       </c>
       <c r="K88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
@@ -3421,7 +3421,7 @@
         <v>183</v>
       </c>
       <c r="K89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
@@ -3483,13 +3483,13 @@
       </c>
       <c r="F93" s="1"/>
       <c r="I93" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>214</v>
       </c>
       <c r="K93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
@@ -3514,7 +3514,7 @@
         <v>199</v>
       </c>
       <c r="K94" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
@@ -3549,10 +3549,10 @@
         <v>164</v>
       </c>
       <c r="J96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K96" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
@@ -3576,7 +3576,7 @@
         <v>183</v>
       </c>
       <c r="K97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
@@ -3587,10 +3587,10 @@
       <c r="F98" s="12"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F99" s="1"/>
       <c r="K99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
@@ -3625,10 +3625,10 @@
         <v>170</v>
       </c>
       <c r="J100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -3646,13 +3646,13 @@
         <v>172</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K101" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
@@ -3708,7 +3708,7 @@
         <v>183</v>
       </c>
       <c r="K104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
@@ -3727,13 +3727,13 @@
         <v>126</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J105" t="s">
         <v>199</v>
       </c>
       <c r="K105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
@@ -3751,7 +3751,7 @@
       <c r="F106" s="5"/>
       <c r="I106" s="6"/>
       <c r="K106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
@@ -3774,7 +3774,7 @@
         <v>183</v>
       </c>
       <c r="K107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
@@ -3797,7 +3797,7 @@
         <v>183</v>
       </c>
       <c r="K108" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -3820,7 +3820,7 @@
         <v>183</v>
       </c>
       <c r="K109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -3843,7 +3843,7 @@
         <v>183</v>
       </c>
       <c r="K110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
@@ -3866,7 +3866,7 @@
         <v>183</v>
       </c>
       <c r="K111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
@@ -3889,7 +3889,7 @@
         <v>183</v>
       </c>
       <c r="K112" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
@@ -3912,7 +3912,7 @@
         <v>183</v>
       </c>
       <c r="K113" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
@@ -3962,13 +3962,13 @@
         <v>145</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K116" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
@@ -3991,7 +3991,7 @@
         <v>183</v>
       </c>
       <c r="K117" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.15">
@@ -4008,13 +4008,13 @@
       </c>
       <c r="F118" s="1"/>
       <c r="I118" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K118" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
@@ -4037,7 +4037,7 @@
         <v>183</v>
       </c>
       <c r="K119" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
@@ -4054,13 +4054,13 @@
       </c>
       <c r="F120" s="1"/>
       <c r="I120" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K120" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
@@ -4083,7 +4083,7 @@
         <v>183</v>
       </c>
       <c r="K121" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -4106,7 +4106,7 @@
         <v>183</v>
       </c>
       <c r="K122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -4129,7 +4129,7 @@
         <v>183</v>
       </c>
       <c r="K123" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
@@ -4183,7 +4183,7 @@
         <v>183</v>
       </c>
       <c r="K126" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
@@ -4208,7 +4208,7 @@
         <v>183</v>
       </c>
       <c r="K127" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
@@ -4231,7 +4231,7 @@
         <v>183</v>
       </c>
       <c r="K128" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
@@ -4254,7 +4254,7 @@
         <v>183</v>
       </c>
       <c r="K129" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
@@ -4274,10 +4274,10 @@
         <v>178</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K130" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -4297,10 +4297,10 @@
         <v>159</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K131" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -4322,10 +4322,10 @@
         <v>180</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K132" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
@@ -4344,13 +4344,13 @@
         <v>93</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>183</v>
       </c>
       <c r="K133" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
